--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value674.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value674.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.6269374044722</v>
+        <v>1.758369565010071</v>
       </c>
       <c r="B1">
-        <v>1.884498262030919</v>
+        <v>2.138585329055786</v>
       </c>
       <c r="C1">
-        <v>2.386538081681956</v>
+        <v>2.257286787033081</v>
       </c>
       <c r="D1">
-        <v>3.561581319228284</v>
+        <v>2.66700005531311</v>
       </c>
       <c r="E1">
-        <v>0.7792621968975352</v>
+        <v>2.923641681671143</v>
       </c>
     </row>
   </sheetData>
